--- a/web/excelfiles/CrawFordCounty_KS_QCEWData_Q1_2020.xlsx
+++ b/web/excelfiles/CrawFordCounty_KS_QCEWData_Q1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files1\WORKING_GROUPS\Econ-center-WG\Chandana Misc Work\Walmart BERC Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5FCDF0-4CC7-49B6-B018-22D830859D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A7EA9-7BD8-4FCC-8EE3-0A4BF9751304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5EF2AE84-2F34-4FDA-822E-C71CD80646E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EF2AE84-2F34-4FDA-822E-C71CD80646E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -63,18 +63,6 @@
     <t>March Employment</t>
   </si>
   <si>
-    <t>Total Quarterly Wages</t>
-  </si>
-  <si>
-    <t>Average Weekly Wage</t>
-  </si>
-  <si>
-    <t>Employment Location Quotient Relative to U.S.</t>
-  </si>
-  <si>
-    <t>Total Wage Location Quotient Relative to U.S.</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -142,6 +130,9 @@
   </si>
   <si>
     <t>1027 Other services</t>
+  </si>
+  <si>
+    <t>Total Quarterly Payroll</t>
   </si>
 </sst>
 </file>
@@ -203,19 +194,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -532,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97CFA54-7DF2-45BA-B7DA-60AD58C36685}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,83 +537,71 @@
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3">
@@ -644,37 +619,28 @@
       <c r="M2" s="3">
         <v>158958342</v>
       </c>
-      <c r="N2" s="3">
-        <v>718</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3">
@@ -692,37 +658,28 @@
       <c r="M3" s="3">
         <v>986357</v>
       </c>
-      <c r="N3" s="3">
-        <v>922</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3">
@@ -740,37 +697,28 @@
       <c r="M4" s="3">
         <v>13014187</v>
       </c>
-      <c r="N4" s="3">
-        <v>930</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1.96</v>
-      </c>
-      <c r="P4" s="4">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
@@ -788,37 +736,28 @@
       <c r="M5" s="3">
         <v>23958981</v>
       </c>
-      <c r="N5" s="3">
-        <v>595</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3">
@@ -836,37 +775,28 @@
       <c r="M6" s="3">
         <v>120998817</v>
       </c>
-      <c r="N6" s="3">
-        <v>729</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
@@ -884,37 +814,28 @@
       <c r="M7" s="3">
         <v>37775331</v>
       </c>
-      <c r="N7" s="3">
-        <v>858</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1.35</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
@@ -932,37 +853,28 @@
       <c r="M8" s="3">
         <v>898441</v>
       </c>
-      <c r="N8" s="3">
-        <v>768</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
@@ -980,37 +892,28 @@
       <c r="M9" s="3">
         <v>7829346</v>
       </c>
-      <c r="N9" s="3">
-        <v>884</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
@@ -1028,37 +931,28 @@
       <c r="M10" s="3">
         <v>29047544</v>
       </c>
-      <c r="N10" s="3">
-        <v>855</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1.78</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
@@ -1076,37 +970,28 @@
       <c r="M11" s="3">
         <v>83223486</v>
       </c>
-      <c r="N11" s="3">
-        <v>682</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3">
@@ -1124,37 +1009,28 @@
       <c r="M12" s="3">
         <v>25563365</v>
       </c>
-      <c r="N12" s="3">
-        <v>731</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3">
@@ -1172,37 +1048,28 @@
       <c r="M13" s="3">
         <v>3828439</v>
       </c>
-      <c r="N13" s="3">
-        <v>994</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3">
@@ -1220,37 +1087,28 @@
       <c r="M14" s="3">
         <v>4565519</v>
       </c>
-      <c r="N14" s="3">
-        <v>784</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
@@ -1268,37 +1126,28 @@
       <c r="M15" s="3">
         <v>14284683</v>
       </c>
-      <c r="N15" s="3">
-        <v>853</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3">
@@ -1316,37 +1165,28 @@
       <c r="M16" s="3">
         <v>25717504</v>
       </c>
-      <c r="N16" s="3">
-        <v>831</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3">
@@ -1364,37 +1204,28 @@
       <c r="M17" s="3">
         <v>7829178</v>
       </c>
-      <c r="N17" s="3">
-        <v>292</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1.17</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3">
@@ -1411,15 +1242,6 @@
       </c>
       <c r="M18" s="3">
         <v>1434798</v>
-      </c>
-      <c r="N18" s="3">
-        <v>501</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0.46</v>
       </c>
     </row>
   </sheetData>
